--- a/medicine/Sexualité et sexologie/Gravure_idol/Gravure_idol.xlsx
+++ b/medicine/Sexualité et sexologie/Gravure_idol/Gravure_idol.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Une gravure idol (グラビアアイドル, gurabia aidoru?), parfois raccourcie en guradoru (グラドル?), est un mannequin japonais posant en bikini, maillot, tenues d'arts martiaux japonais, tenues de combat, tenues de superhéroine issues des tokusatsu ou toute autre tenue plus ou moins provocante, et dont les photographies sont publiées dans des revues et albums-photos visant la population principalement masculine. Récemment, quelques idols bien connues ont publié des DVD de leur propre composition les montrant dans des tenues révélant leurs avantages.
